--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H2">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I2">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J2">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N2">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O2">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P2">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q2">
-        <v>1.407568801646116</v>
+        <v>5.347900153340222</v>
       </c>
       <c r="R2">
-        <v>1.407568801646116</v>
+        <v>48.131101380062</v>
       </c>
       <c r="S2">
-        <v>0.02875600271988389</v>
+        <v>0.05528449049189194</v>
       </c>
       <c r="T2">
-        <v>0.02875600271988389</v>
+        <v>0.05528449049189194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H3">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I3">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J3">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N3">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P3">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q3">
-        <v>3.713953941331408</v>
+        <v>12.667502823658</v>
       </c>
       <c r="R3">
-        <v>3.713953941331408</v>
+        <v>114.007525412922</v>
       </c>
       <c r="S3">
-        <v>0.07587442227587839</v>
+        <v>0.130951666884268</v>
       </c>
       <c r="T3">
-        <v>0.07587442227587839</v>
+        <v>0.130951666884268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H4">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I4">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J4">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N4">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O4">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P4">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q4">
-        <v>6.271455557309596</v>
+        <v>27.14152725530223</v>
       </c>
       <c r="R4">
-        <v>6.271455557309596</v>
+        <v>244.27374529772</v>
       </c>
       <c r="S4">
-        <v>0.1281230394228121</v>
+        <v>0.2805784443346399</v>
       </c>
       <c r="T4">
-        <v>0.1281230394228121</v>
+        <v>0.2805784443346399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.654743967029266</v>
+        <v>2.229372666666666</v>
       </c>
       <c r="H5">
-        <v>0.654743967029266</v>
+        <v>6.688117999999999</v>
       </c>
       <c r="I5">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="J5">
-        <v>0.3032378763485752</v>
+        <v>0.5889623983027473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N5">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O5">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P5">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q5">
-        <v>3.450119969784277</v>
+        <v>11.81586760250689</v>
       </c>
       <c r="R5">
-        <v>3.450119969784277</v>
+        <v>106.342808422562</v>
       </c>
       <c r="S5">
-        <v>0.07048441193000078</v>
+        <v>0.1221477965919475</v>
       </c>
       <c r="T5">
-        <v>0.07048441193000078</v>
+        <v>0.1221477965919475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H6">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I6">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J6">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N6">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O6">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P6">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q6">
-        <v>1.875625831127314</v>
+        <v>2.097216248125334</v>
       </c>
       <c r="R6">
-        <v>1.875625831127314</v>
+        <v>18.874946233128</v>
       </c>
       <c r="S6">
-        <v>0.03831819903816094</v>
+        <v>0.02168019753631893</v>
       </c>
       <c r="T6">
-        <v>0.03831819903816094</v>
+        <v>0.02168019753631892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H7">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I7">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J7">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N7">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P7">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q7">
-        <v>4.948950232366434</v>
+        <v>4.967649354551999</v>
       </c>
       <c r="R7">
-        <v>4.948950232366434</v>
+        <v>44.70884419096799</v>
       </c>
       <c r="S7">
-        <v>0.1011048455862825</v>
+        <v>0.05135360714190797</v>
       </c>
       <c r="T7">
-        <v>0.1011048455862825</v>
+        <v>0.05135360714190796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H8">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I8">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J8">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N8">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O8">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P8">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q8">
-        <v>8.356894546327263</v>
+        <v>10.64373872485334</v>
       </c>
       <c r="R8">
-        <v>8.356894546327263</v>
+        <v>95.79364852368001</v>
       </c>
       <c r="S8">
-        <v>0.1707276276818101</v>
+        <v>0.110030788806857</v>
       </c>
       <c r="T8">
-        <v>0.1707276276818101</v>
+        <v>0.110030788806857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.872465129874066</v>
+        <v>0.874264</v>
       </c>
       <c r="H9">
-        <v>0.872465129874066</v>
+        <v>2.622792</v>
       </c>
       <c r="I9">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471988</v>
       </c>
       <c r="J9">
-        <v>0.4040731743914946</v>
+        <v>0.2309657016471987</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N9">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O9">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P9">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q9">
-        <v>4.597383892174757</v>
+        <v>4.633674678125334</v>
       </c>
       <c r="R9">
-        <v>4.597383892174757</v>
+        <v>41.703072103128</v>
       </c>
       <c r="S9">
-        <v>0.09392250208524117</v>
+        <v>0.04790110816211483</v>
       </c>
       <c r="T9">
-        <v>0.09392250208524117</v>
+        <v>0.04790110816211482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H10">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I10">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J10">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N10">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O10">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P10">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q10">
-        <v>0.2731012247128623</v>
+        <v>0.3280984406553333</v>
       </c>
       <c r="R10">
-        <v>0.2731012247128623</v>
+        <v>2.952885965898</v>
       </c>
       <c r="S10">
-        <v>0.005579336194054926</v>
+        <v>0.00339175276327572</v>
       </c>
       <c r="T10">
-        <v>0.005579336194054926</v>
+        <v>0.00339175276327572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H11">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I11">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J11">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N11">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O11">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P11">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q11">
-        <v>0.7205938130474253</v>
+        <v>0.7771625879819998</v>
       </c>
       <c r="R11">
-        <v>0.7205938130474253</v>
+        <v>6.994463291837999</v>
       </c>
       <c r="S11">
-        <v>0.01472141015323025</v>
+        <v>0.008034001472355397</v>
       </c>
       <c r="T11">
-        <v>0.01472141015323025</v>
+        <v>0.008034001472355397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H12">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I12">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J12">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N12">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O12">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P12">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q12">
-        <v>1.216808863218998</v>
+        <v>1.665156886653333</v>
       </c>
       <c r="R12">
-        <v>1.216808863218998</v>
+        <v>14.98641197988</v>
       </c>
       <c r="S12">
-        <v>0.02485886227329262</v>
+        <v>0.01721373762189574</v>
       </c>
       <c r="T12">
-        <v>0.02485886227329262</v>
+        <v>0.01721373762189574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.127035622741805</v>
+        <v>0.136774</v>
       </c>
       <c r="H13">
-        <v>0.127035622741805</v>
+        <v>0.410322</v>
       </c>
       <c r="I13">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="J13">
-        <v>0.05883523086990405</v>
+        <v>0.0361333680411111</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N13">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O13">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P13">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q13">
-        <v>0.6694038600830549</v>
+        <v>0.7249140081553332</v>
       </c>
       <c r="R13">
-        <v>0.6694038600830549</v>
+        <v>6.524226073397999</v>
       </c>
       <c r="S13">
-        <v>0.01367562224932625</v>
+        <v>0.007493876183584241</v>
       </c>
       <c r="T13">
-        <v>0.01367562224932625</v>
+        <v>0.00749387618358424</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H14">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I14">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J14">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N14">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O14">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P14">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q14">
-        <v>1.085501594056669</v>
+        <v>1.306991583198667</v>
       </c>
       <c r="R14">
-        <v>1.085501594056669</v>
+        <v>11.762924248788</v>
       </c>
       <c r="S14">
-        <v>0.02217631333873491</v>
+        <v>0.01351116544485207</v>
       </c>
       <c r="T14">
-        <v>0.02217631333873491</v>
+        <v>0.01351116544485207</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H15">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I15">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J15">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N15">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O15">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P15">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q15">
-        <v>2.864160472194007</v>
+        <v>3.095854278491999</v>
       </c>
       <c r="R15">
-        <v>2.864160472194007</v>
+        <v>27.862688506428</v>
       </c>
       <c r="S15">
-        <v>0.05851352078298039</v>
+        <v>0.03200372511006482</v>
       </c>
       <c r="T15">
-        <v>0.05851352078298039</v>
+        <v>0.03200372511006482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H16">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I16">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J16">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N16">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O16">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P16">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q16">
-        <v>4.83647761768641</v>
+        <v>6.633210542586668</v>
       </c>
       <c r="R16">
-        <v>4.83647761768641</v>
+        <v>59.69889488328001</v>
       </c>
       <c r="S16">
-        <v>0.09880708024090906</v>
+        <v>0.06857152427262612</v>
       </c>
       <c r="T16">
-        <v>0.09880708024090906</v>
+        <v>0.06857152427262611</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.504931353322182</v>
+        <v>0.544844</v>
       </c>
       <c r="H17">
-        <v>0.504931353322182</v>
+        <v>1.634532</v>
       </c>
       <c r="I17">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="J17">
-        <v>0.2338537183900262</v>
+        <v>0.1439385320089428</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N17">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O17">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P17">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q17">
-        <v>2.660694612233354</v>
+        <v>2.887720238198667</v>
       </c>
       <c r="R17">
-        <v>2.660694612233354</v>
+        <v>25.989482143788</v>
       </c>
       <c r="S17">
-        <v>0.05435680402740181</v>
+        <v>0.02985211718139977</v>
       </c>
       <c r="T17">
-        <v>0.05435680402740181</v>
+        <v>0.02985211718139977</v>
       </c>
     </row>
   </sheetData>
